--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3860.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3860.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.010854386496085</v>
+        <v>3.823570013046265</v>
       </c>
       <c r="B1">
-        <v>3.743154286190982</v>
+        <v>5.86894416809082</v>
       </c>
       <c r="C1">
-        <v>3.928566231341553</v>
+        <v>4.935348987579346</v>
       </c>
       <c r="D1">
-        <v>1.686036021620831</v>
+        <v>5.746235847473145</v>
       </c>
       <c r="E1">
-        <v>0.8330321674892833</v>
+        <v>4.157257080078125</v>
       </c>
     </row>
   </sheetData>
